--- a/docs/POS.xlsx
+++ b/docs/POS.xlsx
@@ -3411,15 +3411,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3438,6 +3429,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3701,29 +3701,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C220" workbookViewId="0">
-      <selection activeCell="D229" sqref="D229"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="79" customWidth="1"/>
-    <col min="2" max="2" width="65.33203125" style="79" customWidth="1"/>
-    <col min="3" max="3" width="41.44140625" style="79" customWidth="1"/>
-    <col min="4" max="4" width="44" style="79" customWidth="1"/>
-    <col min="5" max="5" width="27" style="79" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="79" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="79" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="79" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="79" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" style="79" customWidth="1"/>
-    <col min="12" max="12" width="18" style="79" customWidth="1"/>
-    <col min="13" max="13" width="19" style="79" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="79" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" style="79" customWidth="1"/>
-    <col min="16" max="16" width="51" style="79" customWidth="1"/>
-    <col min="17" max="26" width="10" style="79" customWidth="1"/>
-    <col min="27" max="16384" width="14.44140625" style="79"/>
+    <col min="1" max="1" width="10.33203125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" style="74" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" style="74" customWidth="1"/>
+    <col min="4" max="4" width="44" style="74" customWidth="1"/>
+    <col min="5" max="5" width="27" style="74" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="74" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="74" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" style="74" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="74" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="74" customWidth="1"/>
+    <col min="12" max="12" width="18" style="74" customWidth="1"/>
+    <col min="13" max="13" width="19" style="74" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="74" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" style="74" customWidth="1"/>
+    <col min="16" max="16" width="51" style="74" customWidth="1"/>
+    <col min="17" max="26" width="10" style="74" customWidth="1"/>
+    <col min="27" max="16384" width="14.44140625" style="74"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -3898,7 +3898,7 @@
       <c r="Y3" s="10"/>
       <c r="Z3" s="10"/>
     </row>
-    <row r="4" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="223.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="208.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="Y5" s="10"/>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="208.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -4066,7 +4066,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="351.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="Y7" s="10"/>
       <c r="Z7" s="10"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="323.39999999999998" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="328.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="Y10" s="7"/>
       <c r="Z10" s="7"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="292.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -4350,7 +4350,7 @@
       <c r="Y11" s="10"/>
       <c r="Z11" s="10"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="250.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -4404,7 +4404,7 @@
       <c r="Y12" s="7"/>
       <c r="Z12" s="7"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="262.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="264" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -4516,7 +4516,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="7"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="248.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -4570,7 +4570,7 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="312.60000000000002" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -15248,7 +15248,7 @@
       <c r="C207" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="D207" s="78" t="s">
+      <c r="D207" s="73" t="s">
         <v>127</v>
       </c>
       <c r="E207" s="9" t="s">
@@ -15295,7 +15295,7 @@
       <c r="Z207" s="10"/>
     </row>
     <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="80">
+      <c r="A208" s="75">
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
@@ -15304,10 +15304,10 @@
       <c r="C208" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="D208" s="81" t="s">
+      <c r="D208" s="76" t="s">
         <v>576</v>
       </c>
-      <c r="E208" s="77" t="s">
+      <c r="E208" s="72" t="s">
         <v>572</v>
       </c>
       <c r="F208" s="6" t="s">
@@ -15340,7 +15340,7 @@
       <c r="O208" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P208" s="77"/>
+      <c r="P208" s="72"/>
       <c r="Q208" s="7"/>
       <c r="R208" s="7"/>
       <c r="S208" s="7"/>
@@ -15353,23 +15353,23 @@
       <c r="Z208" s="7"/>
     </row>
     <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="82">
+      <c r="A209" s="77">
         <v>208</v>
       </c>
-      <c r="B209" s="78" t="s">
+      <c r="B209" s="73" t="s">
         <v>577</v>
       </c>
       <c r="C209" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="D209" s="78" t="s">
+      <c r="D209" s="73" t="s">
         <v>579</v>
       </c>
-      <c r="E209" s="78" t="s">
+      <c r="E209" s="73" t="s">
         <v>580</v>
       </c>
-      <c r="F209" s="78"/>
-      <c r="G209" s="78"/>
+      <c r="F209" s="73"/>
+      <c r="G209" s="73"/>
       <c r="H209" s="9" t="s">
         <v>20</v>
       </c>
@@ -15394,7 +15394,7 @@
       <c r="O209" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P209" s="78"/>
+      <c r="P209" s="73"/>
       <c r="Q209" s="10"/>
       <c r="R209" s="10"/>
       <c r="S209" s="10"/>
@@ -15407,19 +15407,19 @@
       <c r="Z209" s="10"/>
     </row>
     <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="80">
+      <c r="A210" s="75">
         <v>209</v>
       </c>
-      <c r="B210" s="77" t="s">
+      <c r="B210" s="72" t="s">
         <v>581</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="D210" s="81" t="s">
+      <c r="D210" s="76" t="s">
         <v>576</v>
       </c>
-      <c r="E210" s="77" t="s">
+      <c r="E210" s="72" t="s">
         <v>569</v>
       </c>
       <c r="F210" s="6" t="s">
@@ -15452,7 +15452,7 @@
       <c r="O210" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P210" s="77"/>
+      <c r="P210" s="72"/>
       <c r="Q210" s="7"/>
       <c r="R210" s="7"/>
       <c r="S210" s="7"/>
@@ -15465,22 +15465,22 @@
       <c r="Z210" s="7"/>
     </row>
     <row r="211" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="82">
+      <c r="A211" s="77">
         <v>210</v>
       </c>
-      <c r="B211" s="78" t="s">
+      <c r="B211" s="73" t="s">
         <v>583</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="D211" s="78" t="s">
+      <c r="D211" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="E211" s="78" t="s">
+      <c r="E211" s="73" t="s">
         <v>585</v>
       </c>
-      <c r="F211" s="78"/>
+      <c r="F211" s="73"/>
       <c r="G211" s="9" t="s">
         <v>21</v>
       </c>
@@ -15508,7 +15508,7 @@
       <c r="O211" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="P211" s="78"/>
+      <c r="P211" s="73"/>
       <c r="Q211" s="10"/>
       <c r="R211" s="10"/>
       <c r="S211" s="10"/>
@@ -15749,19 +15749,19 @@
       <c r="Z215" s="10"/>
     </row>
     <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="80">
+      <c r="A216" s="75">
         <v>215</v>
       </c>
-      <c r="B216" s="77" t="s">
+      <c r="B216" s="72" t="s">
         <v>597</v>
       </c>
-      <c r="C216" s="77" t="s">
+      <c r="C216" s="72" t="s">
         <v>598</v>
       </c>
-      <c r="D216" s="77" t="s">
+      <c r="D216" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E216" s="77" t="s">
+      <c r="E216" s="72" t="s">
         <v>599</v>
       </c>
       <c r="F216" s="6" t="s">
@@ -15794,7 +15794,7 @@
       <c r="O216" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P216" s="77"/>
+      <c r="P216" s="72"/>
       <c r="Q216" s="7"/>
       <c r="R216" s="7"/>
       <c r="S216" s="7"/>
@@ -15807,19 +15807,19 @@
       <c r="Z216" s="7"/>
     </row>
     <row r="217" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="82">
+      <c r="A217" s="77">
         <v>216</v>
       </c>
-      <c r="B217" s="78" t="s">
+      <c r="B217" s="73" t="s">
         <v>600</v>
       </c>
-      <c r="C217" s="78" t="s">
+      <c r="C217" s="73" t="s">
         <v>601</v>
       </c>
-      <c r="D217" s="78" t="s">
+      <c r="D217" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="E217" s="78" t="s">
+      <c r="E217" s="73" t="s">
         <v>599</v>
       </c>
       <c r="F217" s="9" t="s">
@@ -15852,7 +15852,7 @@
       <c r="O217" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P217" s="78"/>
+      <c r="P217" s="73"/>
       <c r="Q217" s="10"/>
       <c r="R217" s="10"/>
       <c r="S217" s="10"/>
@@ -15865,19 +15865,19 @@
       <c r="Z217" s="10"/>
     </row>
     <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="80">
+      <c r="A218" s="75">
         <v>217</v>
       </c>
       <c r="B218" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C218" s="77" t="s">
+      <c r="C218" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="D218" s="77" t="s">
+      <c r="D218" s="72" t="s">
         <v>565</v>
       </c>
-      <c r="E218" s="77" t="s">
+      <c r="E218" s="72" t="s">
         <v>604</v>
       </c>
       <c r="F218" s="6" t="s">
@@ -15910,7 +15910,7 @@
       <c r="O218" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P218" s="77"/>
+      <c r="P218" s="72"/>
       <c r="Q218" s="7"/>
       <c r="R218" s="7"/>
       <c r="S218" s="7"/>
@@ -15923,26 +15923,26 @@
       <c r="Z218" s="7"/>
     </row>
     <row r="219" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="82">
+      <c r="A219" s="77">
         <v>218</v>
       </c>
-      <c r="B219" s="78" t="s">
+      <c r="B219" s="73" t="s">
         <v>605</v>
       </c>
-      <c r="C219" s="78" t="s">
+      <c r="C219" s="73" t="s">
         <v>606</v>
       </c>
-      <c r="D219" s="78" t="s">
+      <c r="D219" s="73" t="s">
         <v>607</v>
       </c>
-      <c r="E219" s="78" t="s">
+      <c r="E219" s="73" t="s">
         <v>608</v>
       </c>
       <c r="F219" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G219" s="78"/>
-      <c r="H219" s="78"/>
+      <c r="G219" s="73"/>
+      <c r="H219" s="73"/>
       <c r="I219" s="8">
         <v>42705</v>
       </c>
@@ -15964,7 +15964,7 @@
       <c r="O219" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P219" s="78"/>
+      <c r="P219" s="73"/>
       <c r="Q219" s="10"/>
       <c r="R219" s="10"/>
       <c r="S219" s="10"/>
@@ -15977,26 +15977,26 @@
       <c r="Z219" s="10"/>
     </row>
     <row r="220" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="80">
+      <c r="A220" s="75">
         <v>219</v>
       </c>
-      <c r="B220" s="77" t="s">
+      <c r="B220" s="72" t="s">
         <v>609</v>
       </c>
-      <c r="C220" s="77" t="s">
+      <c r="C220" s="72" t="s">
         <v>610</v>
       </c>
-      <c r="D220" s="77" t="s">
+      <c r="D220" s="72" t="s">
         <v>565</v>
       </c>
-      <c r="E220" s="77" t="s">
+      <c r="E220" s="72" t="s">
         <v>611</v>
       </c>
       <c r="F220" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G220" s="77"/>
-      <c r="H220" s="77"/>
+      <c r="G220" s="72"/>
+      <c r="H220" s="72"/>
       <c r="I220" s="5">
         <v>42705</v>
       </c>
@@ -16018,7 +16018,7 @@
       <c r="O220" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P220" s="77"/>
+      <c r="P220" s="72"/>
       <c r="Q220" s="7"/>
       <c r="R220" s="7"/>
       <c r="S220" s="7"/>
@@ -16031,26 +16031,26 @@
       <c r="Z220" s="7"/>
     </row>
     <row r="221" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="82">
+      <c r="A221" s="77">
         <v>220</v>
       </c>
-      <c r="B221" s="78" t="s">
+      <c r="B221" s="73" t="s">
         <v>612</v>
       </c>
-      <c r="C221" s="78" t="s">
+      <c r="C221" s="73" t="s">
         <v>613</v>
       </c>
-      <c r="D221" s="78" t="s">
+      <c r="D221" s="73" t="s">
         <v>607</v>
       </c>
-      <c r="E221" s="78" t="s">
+      <c r="E221" s="73" t="s">
         <v>614</v>
       </c>
       <c r="F221" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G221" s="78"/>
-      <c r="H221" s="78"/>
+      <c r="G221" s="73"/>
+      <c r="H221" s="73"/>
       <c r="I221" s="8">
         <v>42705</v>
       </c>
@@ -16072,7 +16072,7 @@
       <c r="O221" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="P221" s="78"/>
+      <c r="P221" s="73"/>
       <c r="Q221" s="10"/>
       <c r="R221" s="10"/>
       <c r="S221" s="10"/>
@@ -16085,26 +16085,26 @@
       <c r="Z221" s="10"/>
     </row>
     <row r="222" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="80">
+      <c r="A222" s="75">
         <v>221</v>
       </c>
-      <c r="B222" s="77" t="s">
+      <c r="B222" s="72" t="s">
         <v>615</v>
       </c>
-      <c r="C222" s="77" t="s">
+      <c r="C222" s="72" t="s">
         <v>616</v>
       </c>
-      <c r="D222" s="77" t="s">
+      <c r="D222" s="72" t="s">
         <v>607</v>
       </c>
-      <c r="E222" s="77" t="s">
+      <c r="E222" s="72" t="s">
         <v>617</v>
       </c>
-      <c r="F222" s="77"/>
+      <c r="F222" s="72"/>
       <c r="G222" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H222" s="77"/>
+      <c r="H222" s="72"/>
       <c r="I222" s="5">
         <v>42705</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="O222" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P222" s="77"/>
+      <c r="P222" s="72"/>
       <c r="Q222" s="7"/>
       <c r="R222" s="7"/>
       <c r="S222" s="7"/>
@@ -16139,16 +16139,16 @@
       <c r="Z222" s="7"/>
     </row>
     <row r="223" spans="1:26" ht="181.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="82">
+      <c r="A223" s="77">
         <v>222</v>
       </c>
-      <c r="B223" s="78" t="s">
+      <c r="B223" s="73" t="s">
         <v>618</v>
       </c>
-      <c r="C223" s="78" t="s">
+      <c r="C223" s="73" t="s">
         <v>619</v>
       </c>
-      <c r="D223" s="78" t="s">
+      <c r="D223" s="73" t="s">
         <v>39</v>
       </c>
       <c r="E223" s="9" t="s">
@@ -41309,15 +41309,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="78" t="s">
         <v>668</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="74" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="80" t="s">
         <v>669</v>
       </c>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
       <c r="H1" s="47"/>
